--- a/input/data/SOURCE_DATA.xlsx
+++ b/input/data/SOURCE_DATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\kimdo\Desktop\econ_code\KHT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\econ\code\input\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2477D89-E707-4083-B749-474ACF9CE845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47353EDC-2841-4A74-A77F-49E58A6A120C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{98105B64-2433-B747-9744-569425947BAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{98105B64-2433-B747-9744-569425947BAB}"/>
   </bookViews>
   <sheets>
     <sheet name="EQcost" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <sheet name="CP_List" sheetId="5" r:id="rId5"/>
     <sheet name="SCALING_POWER_EXPONENT" sheetId="6" r:id="rId6"/>
     <sheet name="SCHEDULE" sheetId="8" r:id="rId7"/>
+    <sheet name="APR1400" sheetId="10" r:id="rId8"/>
+    <sheet name="AP1000" sheetId="13" r:id="rId9"/>
+    <sheet name="NuScale" sheetId="15" r:id="rId10"/>
+    <sheet name="SMART" sheetId="16" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="Reference">#REF!</definedName>
@@ -48,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6261" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6814" uniqueCount="1108">
   <si>
     <t>DATE</t>
   </si>
@@ -2744,6 +2748,9 @@
     <t>PUMPS</t>
   </si>
   <si>
+    <t>VLAVES</t>
+  </si>
+  <si>
     <t>CABLES</t>
   </si>
   <si>
@@ -2829,6 +2836,549 @@
   </si>
   <si>
     <t>END</t>
+  </si>
+  <si>
+    <t>Actual Start</t>
+  </si>
+  <si>
+    <t>Actual End</t>
+  </si>
+  <si>
+    <t>Duration (Months)</t>
+  </si>
+  <si>
+    <t>Concrete Volume (CY)</t>
+  </si>
+  <si>
+    <t>Installation Rate</t>
+  </si>
+  <si>
+    <t>Actual Start from First Concrete</t>
+  </si>
+  <si>
+    <t>Actual End from First Concrete</t>
+  </si>
+  <si>
+    <t>Elevation Start</t>
+  </si>
+  <si>
+    <t>Elevation End</t>
+  </si>
+  <si>
+    <t>BASEMAT</t>
+  </si>
+  <si>
+    <t>FR&amp;P BASEMAT EL.55'</t>
+  </si>
+  <si>
+    <t>FR&amp;P BASEMAT EL.66'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR&amp;P BASEMAT EL.78' </t>
+  </si>
+  <si>
+    <t>Level 1-1 (66ft)</t>
+  </si>
+  <si>
+    <t>FR&amp;P PRI. SHIELD WALL TO EL.100'</t>
+  </si>
+  <si>
+    <t>Level 1-2 (78ft)</t>
+  </si>
+  <si>
+    <t>FR&amp;P IRWST WALL</t>
+  </si>
+  <si>
+    <t>FR&amp;P SEC. SHIELD WALL TO EL.100'</t>
+  </si>
+  <si>
+    <t>Level 2 (100ft)</t>
+  </si>
+  <si>
+    <t>FR&amp;P IRWST TOP SLAB EL.100'</t>
+  </si>
+  <si>
+    <t>FR&amp;P SEC. SHIELD WALL TO EL.114'</t>
+  </si>
+  <si>
+    <t>FR&amp;P PRI. SHIELD WALL TO EL.114'</t>
+  </si>
+  <si>
+    <t>Level 3 (114ft)</t>
+  </si>
+  <si>
+    <t>FR&amp;P SEC. SHIELD WALL TO EL.136'-6"</t>
+  </si>
+  <si>
+    <t>FR&amp;P PRI. SHIELD WALL TO EL.130'</t>
+  </si>
+  <si>
+    <t>Level 4 (135ft)</t>
+  </si>
+  <si>
+    <t>FR&amp;P SEC. SHIELD WALL TO EL.156'</t>
+  </si>
+  <si>
+    <t>ERECT STRUCTURAL STEEL EL.156'</t>
+  </si>
+  <si>
+    <t>FR&amp;P REFUELING POOL WALL TO EL.156'</t>
+  </si>
+  <si>
+    <t>Level 5 (153ft)</t>
+  </si>
+  <si>
+    <t>FR&amp;P SEC. SHIELD WALL TO EL.200'(EXCLUDE SURFACING 15DAYS BEFORE RV)</t>
+  </si>
+  <si>
+    <t>CNT</t>
+  </si>
+  <si>
+    <t>ERECT &amp; TEST POLAR CRANE</t>
+  </si>
+  <si>
+    <t>CNT Dome</t>
+  </si>
+  <si>
+    <t>Sub-Class</t>
+  </si>
+  <si>
+    <t>FR&amp;P IRWST BOTTOM SLAB EL.80'-4"</t>
+  </si>
+  <si>
+    <t>FR&amp;P LINER COVER FILL SLAB EL.81'</t>
+  </si>
+  <si>
+    <t>FR&amp;P LINER COVER FILL SLAB EL.69'</t>
+  </si>
+  <si>
+    <t>FR&amp;P SLAB EL.114'</t>
+  </si>
+  <si>
+    <t>FR&amp;P SLAB EL.136'-6"</t>
+  </si>
+  <si>
+    <t>FR&amp;P SLAB EL.156'</t>
+  </si>
+  <si>
+    <t>FR&amp;P EXTERIOR WALL TO SPRING LINE (LOWER HALF)</t>
+  </si>
+  <si>
+    <t>FR&amp;P EXTERIOR WALL TO SPRING LINE (UPPER HALF)</t>
+  </si>
+  <si>
+    <t>절반으로 가정</t>
+  </si>
+  <si>
+    <t>DURATION</t>
+  </si>
+  <si>
+    <t>CP Package</t>
+  </si>
+  <si>
+    <t>IN-CV</t>
+  </si>
+  <si>
+    <t>CNT (LOWER HALF)</t>
+  </si>
+  <si>
+    <t>CNT (UPPER HALF)</t>
+  </si>
+  <si>
+    <t>POLAR CRANE</t>
+  </si>
+  <si>
+    <t>CNT (DOME)</t>
+  </si>
+  <si>
+    <t>PREDECESSOR</t>
+  </si>
+  <si>
+    <t>FR&amp;P SEC. SHIELD WALL TO EL.114',FR&amp;P PRI. SHIELD WALL TO EL.114'</t>
+  </si>
+  <si>
+    <t>FR&amp;P IRWST BOTTOM SLAB EL.80'-4",FR&amp;P LINER COVER FILL SLAB EL.81',</t>
+  </si>
+  <si>
+    <t>FR&amp;P SEC. SHIELD WALL TO EL.100',FR&amp;P PRI. SHIELD WALL TO EL.100',FR&amp;P IRWST WALL</t>
+  </si>
+  <si>
+    <t>FR&amp;P SEC. SHIELD WALL TO EL.136'-6",FR&amp;P PRI. SHIELD WALL TO EL.130'</t>
+  </si>
+  <si>
+    <t>FR&amp;P SEC. SHIELD WALL TO EL.156',FR&amp;P REFUELING POOL WALL TO EL.156'</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>NSSS Installation</t>
+  </si>
+  <si>
+    <t>INSTALL NSSS</t>
+  </si>
+  <si>
+    <t>ERECT &amp; TEST POLAR CRANE,FR&amp;P SEC. SHIELD WALL TO EL.200'(EXCLUDE SURFACING 15DAYS BEFORE RV)</t>
+  </si>
+  <si>
+    <t>FOUNDATION</t>
+  </si>
+  <si>
+    <t>Under CV_78_6</t>
+  </si>
+  <si>
+    <t>Under_CV_82_6</t>
+  </si>
+  <si>
+    <t>Under_CV_87_6</t>
+  </si>
+  <si>
+    <t>Under_CV_90_6_E</t>
+  </si>
+  <si>
+    <t>Under_CV_92_6_E</t>
+  </si>
+  <si>
+    <t>Under_CV_100_0_E</t>
+  </si>
+  <si>
+    <t>Under_CV_94_6_W</t>
+  </si>
+  <si>
+    <t>Under_CV_103_0_W</t>
+  </si>
+  <si>
+    <t>In_CV_71_6</t>
+  </si>
+  <si>
+    <t>In_CV_78_0</t>
+  </si>
+  <si>
+    <t>In_CV_80_6</t>
+  </si>
+  <si>
+    <t>In_CV_83_0</t>
+  </si>
+  <si>
+    <t>In_CV_87_6_E</t>
+  </si>
+  <si>
+    <t>In_CV_94_0_E</t>
+  </si>
+  <si>
+    <t>In_CV_96_0_E</t>
+  </si>
+  <si>
+    <t>In_CV_87_6_W</t>
+  </si>
+  <si>
+    <t>In_CV_96_0_W</t>
+  </si>
+  <si>
+    <t>In_CV_98_0_CVT</t>
+  </si>
+  <si>
+    <t>In_CV_103_0_IRWST</t>
+  </si>
+  <si>
+    <t>In_CV_105_2</t>
+  </si>
+  <si>
+    <t>In_CV_96_0_E,In_CV_98_0_CVT</t>
+  </si>
+  <si>
+    <t>SC Course 1</t>
+  </si>
+  <si>
+    <t>SC Course 2</t>
+  </si>
+  <si>
+    <t>SC Course 3</t>
+  </si>
+  <si>
+    <t>SC Course 4</t>
+  </si>
+  <si>
+    <t>SC Course 5</t>
+  </si>
+  <si>
+    <t>SC Course 6</t>
+  </si>
+  <si>
+    <t>SC Course 7</t>
+  </si>
+  <si>
+    <t>SC Course 8</t>
+  </si>
+  <si>
+    <t>CP-A4</t>
+  </si>
+  <si>
+    <t>CP-A5</t>
+  </si>
+  <si>
+    <t>CP-A6</t>
+  </si>
+  <si>
+    <t>SC Course 9</t>
+  </si>
+  <si>
+    <t>SC Course 10</t>
+  </si>
+  <si>
+    <t>SC Course 11</t>
+  </si>
+  <si>
+    <t>SC Course 12</t>
+  </si>
+  <si>
+    <t>SC Course 13</t>
+  </si>
+  <si>
+    <t>SC Course 14</t>
+  </si>
+  <si>
+    <t>SC Course 15</t>
+  </si>
+  <si>
+    <t>SC Course 16</t>
+  </si>
+  <si>
+    <t>Shield_Cylinder</t>
+  </si>
+  <si>
+    <t>Shield_Conical</t>
+  </si>
+  <si>
+    <t>Shield_PCCWST</t>
+  </si>
+  <si>
+    <t>CP-A7</t>
+  </si>
+  <si>
+    <t>CP-A8</t>
+  </si>
+  <si>
+    <t>CP-A9</t>
+  </si>
+  <si>
+    <t>CP-A10</t>
+  </si>
+  <si>
+    <t>In_CV_103_0_IRWST,SC Course 8</t>
+  </si>
+  <si>
+    <t>기본 벽: 00_External Wall 1F (24-50)</t>
+  </si>
+  <si>
+    <t>기본 벽: 00_External Wall 2F (50-75)</t>
+  </si>
+  <si>
+    <t>기본 벽: 00_External Wall 3F (75-100)</t>
+  </si>
+  <si>
+    <t>기본 벽: 00_External Wall 4F (100-145'6")</t>
+  </si>
+  <si>
+    <t>기본 벽: 00_External Wall 5F (126-145'6")</t>
+  </si>
+  <si>
+    <t>기본 벽: 00_External Wall 6F (145'6"-181)</t>
+  </si>
+  <si>
+    <t>기본 벽: 00_NPM Support Wall (1F)</t>
+  </si>
+  <si>
+    <t>기본 벽: 00_Pool Wall_North (1F)</t>
+  </si>
+  <si>
+    <t>바닥: 00_Floor (2F)</t>
+  </si>
+  <si>
+    <t>기본 벽: 00_NPM Support Wall (2F)</t>
+  </si>
+  <si>
+    <t>기본 벽: 00_Pool Wall_North (2F)</t>
+  </si>
+  <si>
+    <t>바닥: 00_Floor (3F)</t>
+  </si>
+  <si>
+    <t>기본 벽: 00_NPM Support Wall (3F)</t>
+  </si>
+  <si>
+    <t>기본 벽: 00_Pool Wall_North (3F)</t>
+  </si>
+  <si>
+    <t>바닥: 00_Floor (4F)</t>
+  </si>
+  <si>
+    <t>기본 벽: 00_NPM Support Wall (4F)</t>
+  </si>
+  <si>
+    <t>기본 벽: 00_Pool Wall_North (4F)</t>
+  </si>
+  <si>
+    <t>기본 벽: 00_Pool Wall_North (5F)</t>
+  </si>
+  <si>
+    <t>기본 벽: 00_NPM Support Wall (1F),기본 벽: 00_Pool Wall_North (1F)</t>
+  </si>
+  <si>
+    <t>기본 벽: 00_NPM Support Wall (2F),기본 벽: 00_Pool Wall_North (2F)</t>
+  </si>
+  <si>
+    <t>기본 벽: 00_NPM Support Wall (3F),기본 벽: 00_Pool Wall_North (3F)</t>
+  </si>
+  <si>
+    <t>기본 벽: 00_NPM Support Wall (4F),기본 벽: 00_Pool Wall_North (4F)</t>
+  </si>
+  <si>
+    <t>00_RCA_PSW (1F)</t>
+  </si>
+  <si>
+    <t>00_RCA_SSW (1F)</t>
+  </si>
+  <si>
+    <t>00_RCA_PSW (1.5F)</t>
+  </si>
+  <si>
+    <t>00_RCA_SSW (1.5F)</t>
+  </si>
+  <si>
+    <t>00_RCA_INT (1.5F)</t>
+  </si>
+  <si>
+    <t>00_RCA_PSW (2F)</t>
+  </si>
+  <si>
+    <t>00_RCA_SSW (2F)</t>
+  </si>
+  <si>
+    <t>00_RCA_INT (2F)</t>
+  </si>
+  <si>
+    <t>00_RCA_PSW (3F)</t>
+  </si>
+  <si>
+    <t>00_RCA_INT (3F)</t>
+  </si>
+  <si>
+    <t>00_RCA_SSW (3F)</t>
+  </si>
+  <si>
+    <t>00_RCA_PSW (3.5F)</t>
+  </si>
+  <si>
+    <t>00_RCA_SSW (3.5F)</t>
+  </si>
+  <si>
+    <t>00_RCA_INT (3.5F)</t>
+  </si>
+  <si>
+    <t>00_RCA_SSW (4F)</t>
+  </si>
+  <si>
+    <t>00_RCA_INT_RFP (4F)</t>
+  </si>
+  <si>
+    <t>00_RCA_INT (4F)</t>
+  </si>
+  <si>
+    <t>00_RCA_SSW (5F)</t>
+  </si>
+  <si>
+    <t>00_RCA_SSW (6F)</t>
+  </si>
+  <si>
+    <t>00_RCA_SSW (7F)</t>
+  </si>
+  <si>
+    <t>00_RCA_CNT (1F)</t>
+  </si>
+  <si>
+    <t>00_RCA_CNT (1.5F)</t>
+  </si>
+  <si>
+    <t>00_RCA_CNT (2F)</t>
+  </si>
+  <si>
+    <t>00_RCA_CNT (3F)</t>
+  </si>
+  <si>
+    <t>00_RCA_CNT (3.5F)</t>
+  </si>
+  <si>
+    <t>00_RCA_CNT (4F)</t>
+  </si>
+  <si>
+    <t>00_RCA_CNT (5F)</t>
+  </si>
+  <si>
+    <t>00_RCA_CNT (6F)</t>
+  </si>
+  <si>
+    <t>00_RCA_CNT (7F)</t>
+  </si>
+  <si>
+    <t>00_RCA_CNT (8F)</t>
+  </si>
+  <si>
+    <t>00_RCA_CNT_Roof (9F)</t>
+  </si>
+  <si>
+    <t>00_RCA_CNT_Roof (9F) -West</t>
+  </si>
+  <si>
+    <t>00_RCA_CNT_Roof (9F) -West1</t>
+  </si>
+  <si>
+    <t>바닥(1F)</t>
+  </si>
+  <si>
+    <t>00_RCA_PSW (1F),00_RCA_SSW (1F)</t>
+  </si>
+  <si>
+    <t>00_RCA_PSW (1.5F),00_RCA_SSW (1.5F),00_RCA_INT (1.5F)</t>
+  </si>
+  <si>
+    <t>00_RCA_PSW (2F),00_RCA_SSW (2F),00_RCA_INT (2F)</t>
+  </si>
+  <si>
+    <t>바닥(3F)</t>
+  </si>
+  <si>
+    <t>바닥(3.5F)</t>
+  </si>
+  <si>
+    <t>바닥(4F)</t>
+  </si>
+  <si>
+    <t>바닥(45F)</t>
+  </si>
+  <si>
+    <t>00_RCA_PSW (3F),00_RCA_SSW (3F),00_RCA_INT (3F)</t>
+  </si>
+  <si>
+    <t>00_RCA_PSW (3.5F),00_RCA_SSW (3.5F),00_RCA_INT (3.5F)</t>
+  </si>
+  <si>
+    <t>00_RCA_PSW (4F),00_RCA_SSW (4F),00_RCA_INT (4F)</t>
+  </si>
+  <si>
+    <t>00_RCA_CNT (7F),00_RCA_SSW (7F)</t>
+  </si>
+  <si>
+    <t>SC Course 2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC Course 1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC Course 7</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2840,7 +3390,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="178" formatCode="_(&quot;₩&quot;* #,##0.0_);_(&quot;₩&quot;* \(#,##0.0\);_(&quot;₩&quot;* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2861,6 +3411,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2879,6 +3430,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -2944,6 +3496,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2986,6 +3539,34 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2996,12 +3577,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -3185,7 +3790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3392,9 +3997,6 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3419,8 +4021,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3442,7 +4044,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3466,6 +4067,178 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3802,8 +4575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A4B9DC-29E0-E34C-8CEC-D1A4B0D6F591}">
   <dimension ref="A1:Z325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P274" workbookViewId="0">
-      <selection activeCell="Y269" sqref="Y269"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O1:X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -19626,7 +20399,7 @@
         <v>887</v>
       </c>
       <c r="Y198" s="67" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="Z198" s="33" t="s">
         <v>887</v>
@@ -25270,7 +26043,7 @@
         <v>887</v>
       </c>
       <c r="Y269" s="67" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="Z269" s="33" t="s">
         <v>887</v>
@@ -28623,7 +29396,1215 @@
       <c r="Y325" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17863D7-CD80-2C48-9A95-2A3D51ACD17F}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="91" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="75.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="179" customWidth="1"/>
+    <col min="6" max="7" width="24.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" thickBot="1">
+      <c r="A1" s="127" t="s">
+        <v>973</v>
+      </c>
+      <c r="B1" s="160" t="s">
+        <v>962</v>
+      </c>
+      <c r="C1" s="171" t="s">
+        <v>979</v>
+      </c>
+      <c r="D1" s="132" t="s">
+        <v>985</v>
+      </c>
+      <c r="E1" s="178" t="s">
+        <v>931</v>
+      </c>
+      <c r="F1" s="132" t="s">
+        <v>932</v>
+      </c>
+      <c r="G1" s="102" t="s">
+        <v>972</v>
+      </c>
+      <c r="H1" s="103" t="s">
+        <v>926</v>
+      </c>
+      <c r="I1" s="104" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" thickBot="1">
+      <c r="A2" s="150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="161"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="174" t="s">
+        <v>937</v>
+      </c>
+      <c r="E2" s="190"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="137"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" thickBot="1">
+      <c r="A3" s="185" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="186" t="s">
+        <v>937</v>
+      </c>
+      <c r="C3" s="187"/>
+      <c r="D3" s="188" t="s">
+        <v>989</v>
+      </c>
+      <c r="E3" s="189">
+        <v>21546.3</v>
+      </c>
+      <c r="F3" s="138"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="140"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="161" t="s">
+        <v>974</v>
+      </c>
+      <c r="C4" s="182" t="s">
+        <v>989</v>
+      </c>
+      <c r="D4" s="182" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E4" s="183">
+        <v>1184.4000000000003</v>
+      </c>
+      <c r="F4" s="138"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="140"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C5" s="167" t="s">
+        <v>989</v>
+      </c>
+      <c r="D5" s="165" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E5" s="181">
+        <v>4531.9599999999991</v>
+      </c>
+      <c r="F5" s="138"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="140"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C6" s="167" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D6" s="165" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E6" s="181">
+        <v>2743.33</v>
+      </c>
+      <c r="F6" s="138"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="140"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="128" t="s">
+        <v>873</v>
+      </c>
+      <c r="B7" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C7" s="167" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D7" s="165" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E7" s="181">
+        <v>1138.9199999999998</v>
+      </c>
+      <c r="F7" s="138"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="140"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="128" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B8" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C8" s="167" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D8" s="165" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E8" s="181">
+        <v>4100.7000000000007</v>
+      </c>
+      <c r="F8" s="138"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="140"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="128" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B9" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C9" s="167" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D9" s="165" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E9" s="181">
+        <v>2743.33</v>
+      </c>
+      <c r="F9" s="138"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="191"/>
+      <c r="I9" s="140"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="128" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B10" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C10" s="167" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D10" s="165" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E10" s="181">
+        <v>1138.9199999999998</v>
+      </c>
+      <c r="F10" s="138"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="191"/>
+      <c r="I10" s="140"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="128" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B11" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C11" s="167" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D11" s="165" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E11" s="181">
+        <v>4100.7000000000007</v>
+      </c>
+      <c r="F11" s="138"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="191"/>
+      <c r="I11" s="140"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="128" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B12" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C12" s="167" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D12" s="165" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E12" s="181">
+        <v>2776.67</v>
+      </c>
+      <c r="F12" s="138"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="191"/>
+      <c r="I12" s="140"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="128" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B13" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C13" s="167" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D13" s="165" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E13" s="181">
+        <v>1163.1600000000003</v>
+      </c>
+      <c r="F13" s="138"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="191"/>
+      <c r="I13" s="140"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="128" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B14" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C14" s="167" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D14" s="165" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E14" s="181">
+        <v>3384.8199999999997</v>
+      </c>
+      <c r="F14" s="138"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="140"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" thickBot="1">
+      <c r="A15" s="129" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="164" t="s">
+        <v>974</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D15" s="173" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E15" s="184">
+        <v>2464.58</v>
+      </c>
+      <c r="F15" s="138"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="191"/>
+      <c r="I15" s="140"/>
+    </row>
+    <row r="16" spans="1:9" ht="18" thickBot="1">
+      <c r="A16" s="150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="161" t="s">
+        <v>975</v>
+      </c>
+      <c r="C16" s="182" t="s">
+        <v>989</v>
+      </c>
+      <c r="D16" s="182" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E16" s="134">
+        <v>5334.8499999999995</v>
+      </c>
+      <c r="F16" s="192"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="140"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="180" t="s">
+        <v>975</v>
+      </c>
+      <c r="C17" s="182" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D17" s="165" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E17" s="138">
+        <v>5129.6099999999988</v>
+      </c>
+      <c r="F17" s="192"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="191"/>
+      <c r="I17" s="140"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="180" t="s">
+        <v>975</v>
+      </c>
+      <c r="C18" s="165" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D18" s="165" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E18" s="138">
+        <v>5129.6099999999988</v>
+      </c>
+      <c r="F18" s="192"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="191"/>
+      <c r="I18" s="140"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="180" t="s">
+        <v>975</v>
+      </c>
+      <c r="C19" s="165" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D19" s="165" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E19" s="138">
+        <v>5334.8499999999995</v>
+      </c>
+      <c r="F19" s="192"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="140"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="128" t="s">
+        <v>873</v>
+      </c>
+      <c r="B20" s="180" t="s">
+        <v>975</v>
+      </c>
+      <c r="C20" s="165" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D20" s="165" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E20" s="138">
+        <v>4001.1000000000004</v>
+      </c>
+      <c r="F20" s="192"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="191"/>
+      <c r="I20" s="140"/>
+    </row>
+    <row r="21" spans="1:9" ht="18" thickBot="1">
+      <c r="A21" s="129" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B21" s="164" t="s">
+        <v>975</v>
+      </c>
+      <c r="C21" s="173" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D21" s="173" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E21" s="141">
+        <v>7218.3100000000013</v>
+      </c>
+      <c r="F21" s="113"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="143"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF7A777-8533-0E46-9AAC-E30CA2CC69AD}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="91" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="75.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="179" customWidth="1"/>
+    <col min="6" max="7" width="24.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" thickBot="1">
+      <c r="A1" s="127" t="s">
+        <v>973</v>
+      </c>
+      <c r="B1" s="160" t="s">
+        <v>962</v>
+      </c>
+      <c r="C1" s="171" t="s">
+        <v>979</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>985</v>
+      </c>
+      <c r="E1" s="178" t="s">
+        <v>931</v>
+      </c>
+      <c r="F1" s="132" t="s">
+        <v>932</v>
+      </c>
+      <c r="G1" s="102" t="s">
+        <v>972</v>
+      </c>
+      <c r="H1" s="103" t="s">
+        <v>926</v>
+      </c>
+      <c r="I1" s="104" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" thickBot="1">
+      <c r="A2" s="150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="161"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="194" t="s">
+        <v>937</v>
+      </c>
+      <c r="E2" s="190"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="137"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" thickBot="1">
+      <c r="A3" s="185" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="186" t="s">
+        <v>937</v>
+      </c>
+      <c r="C3" s="187"/>
+      <c r="D3" s="195" t="s">
+        <v>989</v>
+      </c>
+      <c r="E3" s="189">
+        <v>22901</v>
+      </c>
+      <c r="F3" s="138"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="140"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="161" t="s">
+        <v>974</v>
+      </c>
+      <c r="C4" s="182" t="s">
+        <v>989</v>
+      </c>
+      <c r="D4" s="193" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E4" s="183">
+        <v>1925.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C5" s="165" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D5" s="192" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E5" s="181">
+        <v>142.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C6" s="165" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D6" s="192" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E6" s="181">
+        <v>505.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C7" s="165" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D7" s="192" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E7" s="181">
+        <v>113.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C8" s="165" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D8" s="192" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E8" s="181">
+        <v>538.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C9" s="165" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D9" s="192" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E9" s="181">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C10" s="165" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D10" s="192" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E10" s="181">
+        <v>226.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C11" s="165" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D11" s="192" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E11" s="181">
+        <v>828.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C12" s="165" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D12" s="192" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E12" s="181">
+        <v>270.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C13" s="196" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D13" s="192" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E13" s="181">
+        <v>621.77</v>
+      </c>
+      <c r="F13" t="e">
+        <f>E13+#REF!+#REF!+#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C14" s="165" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D14" s="192" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E14" s="181">
+        <v>264.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C15" s="165" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D15" s="192" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E15" s="181">
+        <v>350.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C16" s="165" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D16" s="192" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E16" s="181">
+        <v>1063.6099999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C17" s="196" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D17" s="192" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E17" s="181">
+        <v>190.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C18" s="165" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D18" s="192" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E18" s="181">
+        <v>264.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C19" s="165" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D19" s="192" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E19" s="181">
+        <v>1063.6099999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C20" s="165" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D20" s="192" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E20" s="181">
+        <v>350.64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C21" s="196" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D21" s="192" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E21" s="181">
+        <v>314.70999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C22" s="165" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D22" s="192" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E22" s="181">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C23" s="165" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D23" s="192" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E23" s="181">
+        <v>624.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C24" s="165" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D24" s="192" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E24" s="181">
+        <v>266.19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C25" s="196" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D25" s="192" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E25" s="181">
+        <v>1667.94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C26" s="165" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D26" s="192" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E26" s="181">
+        <v>744.86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C27" s="192" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D27" s="192" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E27" s="181">
+        <v>744.86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18" thickBot="1">
+      <c r="A28" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C28" s="192" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D28" s="113" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E28" s="184">
+        <v>704.23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" thickBot="1">
+      <c r="A29" s="150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="161" t="s">
+        <v>975</v>
+      </c>
+      <c r="C29" s="182" t="s">
+        <v>989</v>
+      </c>
+      <c r="D29" s="193" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E29" s="183">
+        <v>1075.8399999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="180" t="s">
+        <v>975</v>
+      </c>
+      <c r="C30" s="193" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D30" s="192" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E30" s="181">
+        <v>649.66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="180" t="s">
+        <v>975</v>
+      </c>
+      <c r="C31" s="192" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D31" s="192" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E31" s="181">
+        <v>1299.32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="180" t="s">
+        <v>975</v>
+      </c>
+      <c r="C32" s="192" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D32" s="192" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E32" s="181">
+        <v>1515.88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="180" t="s">
+        <v>975</v>
+      </c>
+      <c r="C33" s="192" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D33" s="192" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E33" s="181">
+        <v>1515.88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="180" t="s">
+        <v>975</v>
+      </c>
+      <c r="C34" s="192" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D34" s="192" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E34" s="181">
+        <v>3242.08</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="180" t="s">
+        <v>975</v>
+      </c>
+      <c r="C35" s="192" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D35" s="192" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E35" s="181">
+        <v>2376.81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="180" t="s">
+        <v>975</v>
+      </c>
+      <c r="C36" s="192" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D36" s="192" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E36" s="181">
+        <v>2382.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="180" t="s">
+        <v>975</v>
+      </c>
+      <c r="C37" s="192" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D37" s="192" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E37" s="181">
+        <v>2252.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="180" t="s">
+        <v>975</v>
+      </c>
+      <c r="C38" s="192" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D38" s="192" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E38" s="181">
+        <v>3811.35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="180" t="s">
+        <v>975</v>
+      </c>
+      <c r="C39" s="192" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D39" s="192" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E39" s="181">
+        <v>5298.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="180" t="s">
+        <v>975</v>
+      </c>
+      <c r="C40" s="192" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D40" s="192" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E40" s="181">
+        <v>540.16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18" thickBot="1">
+      <c r="A41" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="180" t="s">
+        <v>975</v>
+      </c>
+      <c r="C41" s="192" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D41" s="113" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E41" s="184">
+        <v>774.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -28642,18 +30623,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C1" t="s">
         <v>918</v>
-      </c>
-      <c r="C1" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B2">
         <v>1.8194444444444444</v>
@@ -28664,7 +30645,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B3">
         <v>0.40277777777777779</v>
@@ -28675,7 +30656,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B4">
         <v>1.7777777777777777</v>
@@ -28686,7 +30667,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B5">
         <v>1.7638888888888888</v>
@@ -28697,7 +30678,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B6">
         <v>1.4861111111111112</v>
@@ -28708,7 +30689,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B7">
         <v>1.4722222222222223</v>
@@ -28719,7 +30700,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B8">
         <v>0.22222222222222221</v>
@@ -28730,7 +30711,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B9">
         <v>1.4444444444444444</v>
@@ -28741,7 +30722,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B10">
         <v>1.47</v>
@@ -28752,7 +30733,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B11">
         <v>1.7222222222222223</v>
@@ -28763,7 +30744,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -28774,7 +30755,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B13">
         <v>1.3888888888888888</v>
@@ -28785,7 +30766,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B14">
         <v>0.61111111111111116</v>
@@ -28796,7 +30777,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B15">
         <v>0.95833333333333337</v>
@@ -28807,7 +30788,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B16">
         <v>0.43055555555555558</v>
@@ -28818,7 +30799,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B17">
         <v>1.47</v>
@@ -28828,7 +30809,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -29060,7 +31041,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -81432,7 +83413,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -81442,12 +83423,12 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A22"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="72" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="32.109375" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="17" style="13" customWidth="1"/>
@@ -81459,36 +83440,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="69" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>878</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="75" t="s">
         <v>877</v>
       </c>
-      <c r="C1" s="74" t="s">
-        <v>922</v>
-      </c>
-      <c r="D1" s="75" t="s">
+      <c r="C1" s="73" t="s">
+        <v>923</v>
+      </c>
+      <c r="D1" s="74" t="s">
         <v>891</v>
       </c>
-      <c r="E1" s="75" t="s">
-        <v>923</v>
-      </c>
-      <c r="F1" s="75" t="s">
+      <c r="E1" s="74" t="s">
+        <v>924</v>
+      </c>
+      <c r="F1" s="74" t="s">
         <v>890</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="73" t="s">
         <v>892</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="75" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="87" t="s">
         <v>849</v>
       </c>
       <c r="C2" s="13">
@@ -81497,24 +83478,24 @@
       <c r="D2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="78" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="79" t="s">
         <v>870</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="88" t="s">
         <v>850</v>
       </c>
       <c r="C3" s="13">
@@ -81523,24 +83504,24 @@
       <c r="D3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="82" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>871</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="88" t="s">
         <v>851</v>
       </c>
       <c r="C4" s="13">
@@ -81549,76 +83530,76 @@
       <c r="D4" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="82" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="79" t="s">
         <v>872</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="88" t="s">
         <v>852</v>
       </c>
       <c r="C5" s="13">
         <v>338484182.95066041</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>924</v>
-      </c>
-      <c r="E5" s="82" t="s">
-        <v>919</v>
-      </c>
-      <c r="F5" s="82" t="s">
+        <v>925</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>920</v>
+      </c>
+      <c r="F5" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="82" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="88" t="s">
         <v>853</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="80">
         <v>192420000</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>924</v>
-      </c>
-      <c r="E6" s="82" t="s">
-        <v>919</v>
-      </c>
-      <c r="F6" s="82" t="s">
+        <v>925</v>
+      </c>
+      <c r="E6" s="81" t="s">
+        <v>920</v>
+      </c>
+      <c r="F6" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="82" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="88" t="s">
         <v>854</v>
       </c>
       <c r="C7" s="13">
@@ -81627,24 +83608,24 @@
       <c r="D7" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="82" t="s">
+      <c r="F7" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="82" t="s">
-        <v>921</v>
-      </c>
-      <c r="H7" s="83" t="s">
+      <c r="G7" s="81" t="s">
+        <v>922</v>
+      </c>
+      <c r="H7" s="82" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="88" t="s">
         <v>855</v>
       </c>
       <c r="C8" s="13">
@@ -81653,24 +83634,24 @@
       <c r="D8" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="82" t="s">
-        <v>921</v>
-      </c>
-      <c r="H8" s="83" t="s">
+      <c r="G8" s="81" t="s">
+        <v>922</v>
+      </c>
+      <c r="H8" s="82" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="79" t="s">
         <v>873</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="88" t="s">
         <v>856</v>
       </c>
       <c r="C9" s="13">
@@ -81679,24 +83660,24 @@
       <c r="D9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="82" t="s">
+      <c r="F9" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="82" t="s">
-        <v>921</v>
-      </c>
-      <c r="H9" s="83" t="s">
+      <c r="G9" s="81" t="s">
+        <v>922</v>
+      </c>
+      <c r="H9" s="82" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="88" t="s">
         <v>857</v>
       </c>
       <c r="C10" s="13">
@@ -81705,24 +83686,24 @@
       <c r="D10" s="13" t="s">
         <v>880</v>
       </c>
-      <c r="E10" s="82" t="s">
-        <v>920</v>
-      </c>
-      <c r="F10" s="82" t="s">
+      <c r="E10" s="81" t="s">
+        <v>921</v>
+      </c>
+      <c r="F10" s="81" t="s">
         <v>887</v>
       </c>
-      <c r="G10" s="82" t="s">
+      <c r="G10" s="81" t="s">
         <v>887</v>
       </c>
-      <c r="H10" s="83" t="s">
+      <c r="H10" s="82" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="79" t="s">
         <v>198</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="88" t="s">
         <v>858</v>
       </c>
       <c r="C11" s="13">
@@ -81731,24 +83712,24 @@
       <c r="D11" s="13" t="s">
         <v>884</v>
       </c>
-      <c r="E11" s="82" t="s">
-        <v>920</v>
-      </c>
-      <c r="F11" s="82" t="s">
+      <c r="E11" s="81" t="s">
+        <v>921</v>
+      </c>
+      <c r="F11" s="81" t="s">
         <v>887</v>
       </c>
-      <c r="G11" s="82" t="s">
+      <c r="G11" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="83" t="s">
+      <c r="H11" s="82" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="88" t="s">
         <v>859</v>
       </c>
       <c r="C12" s="13">
@@ -81757,24 +83738,24 @@
       <c r="D12" s="13" t="s">
         <v>883</v>
       </c>
-      <c r="E12" s="82" t="s">
-        <v>920</v>
-      </c>
-      <c r="F12" s="82" t="s">
+      <c r="E12" s="81" t="s">
+        <v>921</v>
+      </c>
+      <c r="F12" s="81" t="s">
         <v>887</v>
       </c>
-      <c r="G12" s="82" t="s">
+      <c r="G12" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="83" t="s">
+      <c r="H12" s="82" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="79" t="s">
         <v>295</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="88" t="s">
         <v>860</v>
       </c>
       <c r="C13" s="13">
@@ -81783,24 +83764,24 @@
       <c r="D13" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="82" t="s">
+      <c r="F13" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="82" t="s">
-        <v>921</v>
-      </c>
-      <c r="H13" s="83" t="s">
+      <c r="G13" s="81" t="s">
+        <v>922</v>
+      </c>
+      <c r="H13" s="82" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="88" t="s">
         <v>861</v>
       </c>
       <c r="C14" s="13">
@@ -81809,24 +83790,24 @@
       <c r="D14" s="13" t="s">
         <v>882</v>
       </c>
-      <c r="E14" s="82" t="s">
-        <v>920</v>
-      </c>
-      <c r="F14" s="82" t="s">
+      <c r="E14" s="81" t="s">
+        <v>921</v>
+      </c>
+      <c r="F14" s="81" t="s">
         <v>887</v>
       </c>
-      <c r="G14" s="82" t="s">
+      <c r="G14" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="83" t="s">
+      <c r="H14" s="82" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="88" t="s">
         <v>862</v>
       </c>
       <c r="C15" s="13">
@@ -81835,24 +83816,24 @@
       <c r="D15" s="13" t="s">
         <v>880</v>
       </c>
-      <c r="E15" s="82" t="s">
-        <v>920</v>
-      </c>
-      <c r="F15" s="82" t="s">
+      <c r="E15" s="81" t="s">
+        <v>921</v>
+      </c>
+      <c r="F15" s="81" t="s">
         <v>887</v>
       </c>
-      <c r="G15" s="82" t="s">
+      <c r="G15" s="81" t="s">
         <v>887</v>
       </c>
-      <c r="H15" s="83" t="s">
+      <c r="H15" s="82" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="79" t="s">
         <v>874</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="88" t="s">
         <v>863</v>
       </c>
       <c r="C16" s="13">
@@ -81861,24 +83842,24 @@
       <c r="D16" s="13" t="s">
         <v>880</v>
       </c>
-      <c r="E16" s="82" t="s">
-        <v>920</v>
-      </c>
-      <c r="F16" s="82" t="s">
+      <c r="E16" s="81" t="s">
+        <v>921</v>
+      </c>
+      <c r="F16" s="81" t="s">
         <v>887</v>
       </c>
-      <c r="G16" s="82" t="s">
+      <c r="G16" s="81" t="s">
         <v>887</v>
       </c>
-      <c r="H16" s="83" t="s">
+      <c r="H16" s="82" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="79" t="s">
         <v>506</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="88" t="s">
         <v>864</v>
       </c>
       <c r="C17" s="13">
@@ -81887,24 +83868,24 @@
       <c r="D17" s="13" t="s">
         <v>881</v>
       </c>
-      <c r="E17" s="82" t="s">
-        <v>920</v>
-      </c>
-      <c r="F17" s="82" t="s">
+      <c r="E17" s="81" t="s">
+        <v>921</v>
+      </c>
+      <c r="F17" s="81" t="s">
         <v>887</v>
       </c>
-      <c r="G17" s="82" t="s">
+      <c r="G17" s="81" t="s">
         <v>887</v>
       </c>
-      <c r="H17" s="83" t="s">
+      <c r="H17" s="82" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="79" t="s">
         <v>555</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="88" t="s">
         <v>865</v>
       </c>
       <c r="C18" s="13">
@@ -81913,24 +83894,24 @@
       <c r="D18" s="13" t="s">
         <v>881</v>
       </c>
-      <c r="E18" s="82" t="s">
-        <v>920</v>
-      </c>
-      <c r="F18" s="82" t="s">
+      <c r="E18" s="81" t="s">
+        <v>921</v>
+      </c>
+      <c r="F18" s="81" t="s">
         <v>887</v>
       </c>
-      <c r="G18" s="82" t="s">
+      <c r="G18" s="81" t="s">
         <v>887</v>
       </c>
-      <c r="H18" s="83" t="s">
+      <c r="H18" s="82" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="79" t="s">
         <v>875</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="88" t="s">
         <v>866</v>
       </c>
       <c r="C19" s="13">
@@ -81939,24 +83920,24 @@
       <c r="D19" s="13" t="s">
         <v>881</v>
       </c>
-      <c r="E19" s="82" t="s">
-        <v>919</v>
-      </c>
-      <c r="F19" s="82" t="s">
+      <c r="E19" s="81" t="s">
+        <v>920</v>
+      </c>
+      <c r="F19" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="82" t="s">
+      <c r="G19" s="81" t="s">
         <v>887</v>
       </c>
-      <c r="H19" s="83" t="s">
+      <c r="H19" s="82" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="79" t="s">
         <v>700</v>
       </c>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="88" t="s">
         <v>867</v>
       </c>
       <c r="C20" s="13">
@@ -81965,24 +83946,24 @@
       <c r="D20" s="13" t="s">
         <v>881</v>
       </c>
-      <c r="E20" s="82" t="s">
-        <v>920</v>
-      </c>
-      <c r="F20" s="82" t="s">
+      <c r="E20" s="81" t="s">
+        <v>921</v>
+      </c>
+      <c r="F20" s="81" t="s">
         <v>887</v>
       </c>
-      <c r="G20" s="82" t="s">
+      <c r="G20" s="81" t="s">
         <v>887</v>
       </c>
-      <c r="H20" s="83" t="s">
+      <c r="H20" s="82" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="79" t="s">
         <v>622</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="88" t="s">
         <v>868</v>
       </c>
       <c r="C21" s="13">
@@ -81991,42 +83972,42 @@
       <c r="D21" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="82" t="s">
+      <c r="E21" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="82" t="s">
+      <c r="F21" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="82" t="s">
+      <c r="G21" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="83" t="s">
+      <c r="H21" s="82" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" thickBot="1">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="83" t="s">
         <v>876</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="89" t="s">
         <v>869</v>
       </c>
-      <c r="C22" s="85">
-        <v>0</v>
-      </c>
-      <c r="D22" s="85" t="s">
+      <c r="C22" s="84">
+        <v>0</v>
+      </c>
+      <c r="D22" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="86" t="s">
+      <c r="E22" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="86" t="s">
+      <c r="F22" s="85" t="s">
         <v>887</v>
       </c>
-      <c r="G22" s="86" t="s">
+      <c r="G22" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="87" t="s">
+      <c r="H22" s="86" t="s">
         <v>887</v>
       </c>
     </row>
@@ -82053,7 +84034,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B1" s="69" t="s">
         <v>888</v>
@@ -82133,14 +84114,14 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="70" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -82151,7 +84132,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -82159,250 +84140,2469 @@
     <col min="2" max="3" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="91" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:3" s="90" customFormat="1" ht="18" thickBot="1">
+      <c r="A1" s="98" t="s">
         <v>878</v>
       </c>
-      <c r="B1" s="93" t="s">
-        <v>925</v>
-      </c>
-      <c r="C1" s="94" t="s">
+      <c r="B1" s="91" t="s">
         <v>926</v>
       </c>
+      <c r="C1" s="92" t="s">
+        <v>927</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="95">
+      <c r="B2" s="93">
         <v>-2</v>
       </c>
-      <c r="C2" s="96">
+      <c r="C2" s="94">
         <v>7.4999504811462376</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="100" t="s">
         <v>870</v>
       </c>
-      <c r="B3" s="92">
+      <c r="B3" s="13">
         <v>-2</v>
       </c>
-      <c r="C3" s="97">
+      <c r="C3" s="95">
         <v>7.4999504811462376</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="100" t="s">
         <v>871</v>
       </c>
-      <c r="B4" s="92">
+      <c r="B4" s="13">
         <v>-2</v>
       </c>
-      <c r="C4" s="97">
+      <c r="C4" s="95">
         <v>7.4999504811462376</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="100" t="s">
         <v>872</v>
       </c>
-      <c r="B5" s="92">
+      <c r="B5" s="13">
         <v>-2</v>
       </c>
-      <c r="C5" s="97">
+      <c r="C5" s="95">
         <v>7.4999504811462376</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="100" t="s">
         <v>205</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="13">
         <v>-2</v>
       </c>
-      <c r="C6" s="97">
+      <c r="C6" s="95">
         <v>7.4999504811462376</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="92">
-        <v>0</v>
-      </c>
-      <c r="C7" s="97">
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="95">
         <v>1.4861108333333333</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="92">
+      <c r="B8" s="13">
         <v>2.486110833333333</v>
       </c>
-      <c r="C8" s="97">
+      <c r="C8" s="95">
         <v>8.9527291277181007</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="100" t="s">
         <v>873</v>
       </c>
-      <c r="B9" s="92">
+      <c r="B9" s="13">
         <v>1.4861108333333333</v>
       </c>
-      <c r="C9" s="97">
+      <c r="C9" s="95">
         <v>2.486110833333333</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="92">
-        <v>0</v>
-      </c>
-      <c r="C10" s="97">
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="95">
         <v>6.9999513499403223</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="100" t="s">
         <v>198</v>
       </c>
-      <c r="B11" s="92">
-        <v>0</v>
-      </c>
-      <c r="C11" s="97">
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="95">
         <v>1.9999860999829493</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="92">
+      <c r="B12" s="13">
         <v>1.9527777777777782</v>
       </c>
-      <c r="C12" s="97">
+      <c r="C12" s="95">
         <v>4.4527604027564651</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="100" t="s">
         <v>295</v>
       </c>
-      <c r="B13" s="92">
+      <c r="B13" s="13">
         <v>1.9527777777777782</v>
       </c>
-      <c r="C13" s="97">
+      <c r="C13" s="95">
         <v>3.9527638777607272</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="92">
+      <c r="B14" s="13">
         <v>1.9527777777777782</v>
       </c>
-      <c r="C14" s="97">
+      <c r="C14" s="95">
         <v>6.452746502739414</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="92">
-        <v>0</v>
-      </c>
-      <c r="C15" s="97">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="95">
         <v>4.4999765437008499</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="100" t="s">
         <v>874</v>
       </c>
-      <c r="B16" s="92">
+      <c r="B16" s="13">
         <v>4.4999765437008499</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C16" s="95">
         <v>5.4999713311899274</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="100" t="s">
         <v>506</v>
       </c>
-      <c r="B17" s="92">
+      <c r="B17" s="13">
         <v>1.9527777777777782</v>
       </c>
-      <c r="C17" s="97">
+      <c r="C17" s="95">
         <v>8.9527291277181007</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="102" t="s">
+      <c r="A18" s="100" t="s">
         <v>555</v>
       </c>
-      <c r="B18" s="92">
+      <c r="B18" s="13">
         <v>1.9527777777777782</v>
       </c>
-      <c r="C18" s="97">
+      <c r="C18" s="95">
         <v>8.9527291277181007</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="100" t="s">
         <v>875</v>
       </c>
-      <c r="B19" s="92">
+      <c r="B19" s="13">
         <v>1.9527777777777782</v>
       </c>
-      <c r="C19" s="97">
+      <c r="C19" s="95">
         <v>8.9527291277181007</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="100" t="s">
         <v>700</v>
       </c>
-      <c r="B20" s="92">
+      <c r="B20" s="13">
         <v>1.9527777777777782</v>
       </c>
-      <c r="C20" s="97">
+      <c r="C20" s="95">
         <v>3.9527638777607272</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="100" t="s">
         <v>622</v>
       </c>
-      <c r="B21" s="92">
+      <c r="B21" s="13">
         <v>1.9527777777777782</v>
       </c>
-      <c r="C21" s="97">
+      <c r="C21" s="95">
         <v>3.9527638777607272</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" thickBot="1">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="101" t="s">
         <v>876</v>
       </c>
-      <c r="B22" s="98">
+      <c r="B22" s="96">
         <v>1.9527777777777782</v>
       </c>
-      <c r="C22" s="99">
+      <c r="C22" s="97">
         <v>10.452729127718101</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280F1164-D087-5845-96EF-1582F68A4D0D}">
+  <dimension ref="A1:P36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="75.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" customWidth="1"/>
+    <col min="5" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" customWidth="1"/>
+    <col min="9" max="10" width="24.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.33203125" customWidth="1"/>
+    <col min="14" max="14" width="28.33203125" customWidth="1"/>
+    <col min="15" max="16" width="19.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18" thickBot="1">
+      <c r="A1" s="127" t="s">
+        <v>973</v>
+      </c>
+      <c r="B1" s="160" t="s">
+        <v>962</v>
+      </c>
+      <c r="C1" s="171" t="s">
+        <v>979</v>
+      </c>
+      <c r="D1" s="132" t="s">
+        <v>985</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>928</v>
+      </c>
+      <c r="F1" s="103" t="s">
+        <v>929</v>
+      </c>
+      <c r="G1" s="103" t="s">
+        <v>930</v>
+      </c>
+      <c r="H1" s="103" t="s">
+        <v>931</v>
+      </c>
+      <c r="I1" s="132" t="s">
+        <v>932</v>
+      </c>
+      <c r="J1" s="102" t="s">
+        <v>972</v>
+      </c>
+      <c r="K1" s="103" t="s">
+        <v>926</v>
+      </c>
+      <c r="L1" s="104" t="s">
+        <v>927</v>
+      </c>
+      <c r="M1" s="103" t="s">
+        <v>933</v>
+      </c>
+      <c r="N1" s="103" t="s">
+        <v>934</v>
+      </c>
+      <c r="O1" s="103" t="s">
+        <v>935</v>
+      </c>
+      <c r="P1" s="104" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="161"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="174" t="s">
+        <v>937</v>
+      </c>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="109"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="C3" s="167"/>
+      <c r="D3" s="165" t="s">
+        <v>938</v>
+      </c>
+      <c r="E3" s="123">
+        <v>41062</v>
+      </c>
+      <c r="F3" s="123">
+        <v>41117</v>
+      </c>
+      <c r="G3" s="105">
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="H3" s="105">
+        <v>38146.97</v>
+      </c>
+      <c r="I3" s="138"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="105">
+        <v>-1.8333333333333333</v>
+      </c>
+      <c r="N3" s="105">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>45</v>
+      </c>
+      <c r="P3" s="110">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="C4" s="168" t="s">
+        <v>938</v>
+      </c>
+      <c r="D4" s="165" t="s">
+        <v>939</v>
+      </c>
+      <c r="E4" s="123">
+        <v>41111</v>
+      </c>
+      <c r="F4" s="123">
+        <v>41171</v>
+      </c>
+      <c r="G4" s="105">
+        <v>2</v>
+      </c>
+      <c r="H4" s="105">
+        <v>9301.85</v>
+      </c>
+      <c r="I4" s="138"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="105">
+        <v>-0.2</v>
+      </c>
+      <c r="N4" s="105">
+        <v>1.8</v>
+      </c>
+      <c r="O4">
+        <v>55</v>
+      </c>
+      <c r="P4" s="110">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="18" thickBot="1">
+      <c r="A5" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="C5" s="168" t="s">
+        <v>939</v>
+      </c>
+      <c r="D5" s="173" t="s">
+        <v>940</v>
+      </c>
+      <c r="E5" s="111">
+        <v>41170</v>
+      </c>
+      <c r="F5" s="111">
+        <v>41255</v>
+      </c>
+      <c r="G5" s="112">
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="H5" s="112">
+        <v>9059.7199999999993</v>
+      </c>
+      <c r="I5" s="141"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="112">
+        <v>1.7666666666666666</v>
+      </c>
+      <c r="N5" s="112">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O5" s="113">
+        <v>66</v>
+      </c>
+      <c r="P5" s="114">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="151"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="175" t="s">
+        <v>941</v>
+      </c>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="118"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C7" s="168" t="s">
+        <v>940</v>
+      </c>
+      <c r="D7" s="165" t="s">
+        <v>965</v>
+      </c>
+      <c r="E7" s="123">
+        <v>41256</v>
+      </c>
+      <c r="F7" s="123">
+        <v>41282</v>
+      </c>
+      <c r="G7" s="105">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="H7" s="105">
+        <v>256.94</v>
+      </c>
+      <c r="I7" s="138"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="105">
+        <v>4.6333333333333337</v>
+      </c>
+      <c r="N7" s="105">
+        <v>5.5</v>
+      </c>
+      <c r="O7">
+        <v>66</v>
+      </c>
+      <c r="P7" s="110">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="18" thickBot="1">
+      <c r="A8" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C8" s="168" t="s">
+        <v>965</v>
+      </c>
+      <c r="D8" s="173" t="s">
+        <v>942</v>
+      </c>
+      <c r="E8" s="111">
+        <v>41289</v>
+      </c>
+      <c r="F8" s="111">
+        <v>41446</v>
+      </c>
+      <c r="G8" s="112">
+        <v>5.2333333333333334</v>
+      </c>
+      <c r="H8" s="112">
+        <v>5095.2299999999996</v>
+      </c>
+      <c r="I8" s="141"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="112">
+        <v>5.7333333333333334</v>
+      </c>
+      <c r="N8" s="112">
+        <v>10.966666666666667</v>
+      </c>
+      <c r="O8" s="113">
+        <v>69</v>
+      </c>
+      <c r="P8" s="114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="151"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="175" t="s">
+        <v>943</v>
+      </c>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="118"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C10" s="168" t="s">
+        <v>965</v>
+      </c>
+      <c r="D10" s="165" t="s">
+        <v>963</v>
+      </c>
+      <c r="E10" s="123">
+        <v>41268</v>
+      </c>
+      <c r="F10" s="123">
+        <v>41347</v>
+      </c>
+      <c r="G10" s="105">
+        <v>2.6333333333333333</v>
+      </c>
+      <c r="H10" s="105">
+        <v>1736.3</v>
+      </c>
+      <c r="I10" s="138"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="140"/>
+      <c r="M10" s="105">
+        <v>5.0333333333333332</v>
+      </c>
+      <c r="N10" s="105">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="O10">
+        <v>78</v>
+      </c>
+      <c r="P10" s="110">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C11" s="168" t="s">
+        <v>963</v>
+      </c>
+      <c r="D11" s="165" t="s">
+        <v>964</v>
+      </c>
+      <c r="E11" s="123">
+        <v>41318</v>
+      </c>
+      <c r="F11" s="123">
+        <v>41347</v>
+      </c>
+      <c r="G11" s="105">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="H11" s="105">
+        <v>1736.3</v>
+      </c>
+      <c r="I11" s="138"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="105">
+        <v>6.7</v>
+      </c>
+      <c r="N11" s="105">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="O11">
+        <v>78</v>
+      </c>
+      <c r="P11" s="110">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C12" s="168" t="s">
+        <v>963</v>
+      </c>
+      <c r="D12" s="165" t="s">
+        <v>944</v>
+      </c>
+      <c r="E12" s="123">
+        <v>41330</v>
+      </c>
+      <c r="F12" s="123">
+        <v>41436</v>
+      </c>
+      <c r="G12" s="105">
+        <v>3.5333333333333332</v>
+      </c>
+      <c r="H12" s="126">
+        <v>821</v>
+      </c>
+      <c r="I12" s="138"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="105">
+        <v>7.1</v>
+      </c>
+      <c r="N12" s="105">
+        <v>10.633333333333333</v>
+      </c>
+      <c r="O12">
+        <v>81</v>
+      </c>
+      <c r="P12" s="110">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="18" thickBot="1">
+      <c r="A13" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C13" s="167" t="s">
+        <v>981</v>
+      </c>
+      <c r="D13" s="173" t="s">
+        <v>945</v>
+      </c>
+      <c r="E13" s="111">
+        <v>41351</v>
+      </c>
+      <c r="F13" s="111">
+        <v>41419</v>
+      </c>
+      <c r="G13" s="112">
+        <v>2.2666666666666666</v>
+      </c>
+      <c r="H13" s="112">
+        <v>934.21479999999997</v>
+      </c>
+      <c r="I13" s="141"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="112">
+        <v>7.8</v>
+      </c>
+      <c r="N13" s="112">
+        <v>10.066666666666666</v>
+      </c>
+      <c r="O13" s="113">
+        <v>81</v>
+      </c>
+      <c r="P13" s="114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="151"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="175" t="s">
+        <v>946</v>
+      </c>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="118"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C15" s="168" t="s">
+        <v>982</v>
+      </c>
+      <c r="D15" s="165" t="s">
+        <v>947</v>
+      </c>
+      <c r="E15" s="123">
+        <v>41422</v>
+      </c>
+      <c r="F15" s="123">
+        <v>41481</v>
+      </c>
+      <c r="G15" s="105">
+        <v>1.9666666666666666</v>
+      </c>
+      <c r="H15" s="105">
+        <v>982.97</v>
+      </c>
+      <c r="I15" s="138"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="105">
+        <v>10.166666666666666</v>
+      </c>
+      <c r="N15" s="105">
+        <v>12.133333333333333</v>
+      </c>
+      <c r="O15">
+        <v>97</v>
+      </c>
+      <c r="P15" s="110">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C16" s="168" t="s">
+        <v>947</v>
+      </c>
+      <c r="D16" s="165" t="s">
+        <v>948</v>
+      </c>
+      <c r="E16" s="123">
+        <v>41482</v>
+      </c>
+      <c r="F16" s="123">
+        <v>41550</v>
+      </c>
+      <c r="G16" s="105">
+        <v>2.2666666666666666</v>
+      </c>
+      <c r="H16" s="105">
+        <v>688.36880000000008</v>
+      </c>
+      <c r="I16" s="138"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="105">
+        <v>12.166666666666666</v>
+      </c>
+      <c r="N16" s="105">
+        <v>14.433333333333334</v>
+      </c>
+      <c r="O16">
+        <v>100</v>
+      </c>
+      <c r="P16" s="110">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="18" thickBot="1">
+      <c r="A17" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C17" s="168" t="s">
+        <v>947</v>
+      </c>
+      <c r="D17" s="173" t="s">
+        <v>949</v>
+      </c>
+      <c r="E17" s="111">
+        <v>41510</v>
+      </c>
+      <c r="F17" s="111">
+        <v>41565</v>
+      </c>
+      <c r="G17" s="112">
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="H17" s="112">
+        <v>1261.04</v>
+      </c>
+      <c r="I17" s="141"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="112">
+        <v>13.1</v>
+      </c>
+      <c r="N17" s="112">
+        <v>14.933333333333334</v>
+      </c>
+      <c r="O17" s="113">
+        <v>100</v>
+      </c>
+      <c r="P17" s="114">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="151"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="175" t="s">
+        <v>950</v>
+      </c>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="118"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C19" s="168" t="s">
+        <v>980</v>
+      </c>
+      <c r="D19" s="165" t="s">
+        <v>966</v>
+      </c>
+      <c r="E19" s="123">
+        <v>41540</v>
+      </c>
+      <c r="F19" s="123">
+        <v>41593</v>
+      </c>
+      <c r="G19" s="105">
+        <v>1.7666666666666666</v>
+      </c>
+      <c r="H19" s="126">
+        <v>635.30999999999995</v>
+      </c>
+      <c r="I19" s="138"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="105">
+        <v>14.1</v>
+      </c>
+      <c r="N19" s="105">
+        <v>15.866666666666667</v>
+      </c>
+      <c r="O19">
+        <v>110</v>
+      </c>
+      <c r="P19" s="110">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C20" s="168" t="s">
+        <v>966</v>
+      </c>
+      <c r="D20" s="165" t="s">
+        <v>951</v>
+      </c>
+      <c r="E20" s="123">
+        <v>41596</v>
+      </c>
+      <c r="F20" s="123">
+        <v>41647</v>
+      </c>
+      <c r="G20" s="105">
+        <v>1.7</v>
+      </c>
+      <c r="H20" s="105">
+        <v>1081.7224000000001</v>
+      </c>
+      <c r="I20" s="138"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="105">
+        <v>15.966666666666667</v>
+      </c>
+      <c r="N20" s="105">
+        <v>17.666666666666668</v>
+      </c>
+      <c r="O20">
+        <v>114</v>
+      </c>
+      <c r="P20" s="110">
+        <v>136.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="18" thickBot="1">
+      <c r="A21" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C21" s="168" t="s">
+        <v>966</v>
+      </c>
+      <c r="D21" s="173" t="s">
+        <v>952</v>
+      </c>
+      <c r="E21" s="111">
+        <v>41626</v>
+      </c>
+      <c r="F21" s="111">
+        <v>41659</v>
+      </c>
+      <c r="G21" s="112">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H21" s="112">
+        <v>967.27</v>
+      </c>
+      <c r="I21" s="141"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="112">
+        <v>16.966666666666665</v>
+      </c>
+      <c r="N21" s="112">
+        <v>18.066666666666666</v>
+      </c>
+      <c r="O21" s="113">
+        <v>114</v>
+      </c>
+      <c r="P21" s="114">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="151"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="175" t="s">
+        <v>953</v>
+      </c>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="118"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C23" s="167" t="s">
+        <v>983</v>
+      </c>
+      <c r="D23" s="165" t="s">
+        <v>967</v>
+      </c>
+      <c r="E23" s="123">
+        <v>41659</v>
+      </c>
+      <c r="F23" s="123">
+        <v>41724</v>
+      </c>
+      <c r="G23" s="105">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="H23" s="105">
+        <v>611.79999999999995</v>
+      </c>
+      <c r="I23" s="138"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="140"/>
+      <c r="M23" s="105">
+        <v>18.066666666666666</v>
+      </c>
+      <c r="N23" s="105">
+        <v>20.233333333333334</v>
+      </c>
+      <c r="O23">
+        <v>136.5</v>
+      </c>
+      <c r="P23" s="110">
+        <v>136.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C24" s="168" t="s">
+        <v>967</v>
+      </c>
+      <c r="D24" s="165" t="s">
+        <v>954</v>
+      </c>
+      <c r="E24" s="123">
+        <v>41673</v>
+      </c>
+      <c r="F24" s="123">
+        <v>41724</v>
+      </c>
+      <c r="G24" s="105">
+        <v>1.7</v>
+      </c>
+      <c r="H24" s="105">
+        <v>983.38400000000001</v>
+      </c>
+      <c r="I24" s="138"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="140"/>
+      <c r="M24" s="105">
+        <v>18.533333333333335</v>
+      </c>
+      <c r="N24" s="105">
+        <v>20.233333333333334</v>
+      </c>
+      <c r="O24">
+        <v>136.5</v>
+      </c>
+      <c r="P24" s="110">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C25" s="167"/>
+      <c r="D25" s="165" t="s">
+        <v>955</v>
+      </c>
+      <c r="E25" s="123">
+        <v>41683</v>
+      </c>
+      <c r="F25" s="123">
+        <v>41729</v>
+      </c>
+      <c r="G25" s="105">
+        <v>1.5333333333333334</v>
+      </c>
+      <c r="H25" s="124" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="144"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="105">
+        <v>18.866666666666667</v>
+      </c>
+      <c r="N25" s="105">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="O25">
+        <v>136.5</v>
+      </c>
+      <c r="P25" s="110">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="18" thickBot="1">
+      <c r="A26" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C26" s="168" t="s">
+        <v>967</v>
+      </c>
+      <c r="D26" s="173" t="s">
+        <v>956</v>
+      </c>
+      <c r="E26" s="111">
+        <v>41687</v>
+      </c>
+      <c r="F26" s="111">
+        <v>41719</v>
+      </c>
+      <c r="G26" s="112">
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="H26" s="112">
+        <v>1558</v>
+      </c>
+      <c r="I26" s="141"/>
+      <c r="J26" s="142"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="112">
+        <v>19</v>
+      </c>
+      <c r="N26" s="112">
+        <v>20.066666666666666</v>
+      </c>
+      <c r="O26" s="113">
+        <v>130</v>
+      </c>
+      <c r="P26" s="114">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="151"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="169"/>
+      <c r="D27" s="175" t="s">
+        <v>957</v>
+      </c>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="116"/>
+      <c r="N27" s="116"/>
+      <c r="O27" s="117"/>
+      <c r="P27" s="118"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C28" s="167" t="s">
+        <v>984</v>
+      </c>
+      <c r="D28" s="165" t="s">
+        <v>968</v>
+      </c>
+      <c r="E28" s="123">
+        <v>41694</v>
+      </c>
+      <c r="F28" s="123">
+        <v>41734</v>
+      </c>
+      <c r="G28" s="105">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="H28" s="105">
+        <v>993.61</v>
+      </c>
+      <c r="I28" s="138"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="105">
+        <v>19.233333333333334</v>
+      </c>
+      <c r="N28" s="105">
+        <v>20.566666666666666</v>
+      </c>
+      <c r="O28">
+        <v>156</v>
+      </c>
+      <c r="P28" s="110">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="18" thickBot="1">
+      <c r="A29" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C29" s="168" t="s">
+        <v>968</v>
+      </c>
+      <c r="D29" s="173" t="s">
+        <v>958</v>
+      </c>
+      <c r="E29" s="111">
+        <v>41719</v>
+      </c>
+      <c r="F29" s="111">
+        <v>41753</v>
+      </c>
+      <c r="G29" s="112">
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="H29" s="112">
+        <v>1895.64</v>
+      </c>
+      <c r="I29" s="141"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="143"/>
+      <c r="M29" s="112">
+        <v>20.066666666666666</v>
+      </c>
+      <c r="N29" s="112">
+        <v>21.2</v>
+      </c>
+      <c r="O29" s="113">
+        <v>156</v>
+      </c>
+      <c r="P29" s="114">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="152"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="176" t="s">
+        <v>959</v>
+      </c>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="154"/>
+      <c r="N30" s="154"/>
+      <c r="O30" s="158"/>
+      <c r="P30" s="159"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="C31" s="165" t="s">
+        <v>940</v>
+      </c>
+      <c r="D31" s="165" t="s">
+        <v>969</v>
+      </c>
+      <c r="E31" s="123">
+        <v>41334</v>
+      </c>
+      <c r="F31" s="123">
+        <v>41652</v>
+      </c>
+      <c r="G31" s="105">
+        <v>5.3</v>
+      </c>
+      <c r="H31" s="105">
+        <v>7062.7449999999999</v>
+      </c>
+      <c r="I31" s="138"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="140"/>
+      <c r="M31" s="105">
+        <v>7.2333333333333334</v>
+      </c>
+      <c r="N31" s="105">
+        <v>17.833333333333332</v>
+      </c>
+      <c r="O31">
+        <v>78</v>
+      </c>
+      <c r="P31" s="110">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="C32" s="165" t="s">
+        <v>969</v>
+      </c>
+      <c r="D32" s="165" t="s">
+        <v>970</v>
+      </c>
+      <c r="E32" s="123"/>
+      <c r="F32" s="166" t="s">
+        <v>971</v>
+      </c>
+      <c r="G32" s="130">
+        <v>5.3</v>
+      </c>
+      <c r="H32" s="130">
+        <v>7062.7449999999999</v>
+      </c>
+      <c r="I32" s="138"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="140"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
+      <c r="P32" s="110"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="C33" s="165" t="s">
+        <v>970</v>
+      </c>
+      <c r="D33" s="165" t="s">
+        <v>960</v>
+      </c>
+      <c r="E33" s="123">
+        <v>41696</v>
+      </c>
+      <c r="F33" s="123">
+        <v>41744</v>
+      </c>
+      <c r="G33" s="105">
+        <v>1.6</v>
+      </c>
+      <c r="H33" s="124" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="144"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="105">
+        <v>19.3</v>
+      </c>
+      <c r="N33" s="105">
+        <v>20.9</v>
+      </c>
+      <c r="O33">
+        <v>254</v>
+      </c>
+      <c r="P33" s="110">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="C34" s="165" t="s">
+        <v>988</v>
+      </c>
+      <c r="D34" s="165" t="s">
+        <v>987</v>
+      </c>
+      <c r="E34" s="123">
+        <v>41744</v>
+      </c>
+      <c r="F34" s="123">
+        <v>41804</v>
+      </c>
+      <c r="G34" s="105">
+        <v>2</v>
+      </c>
+      <c r="H34" s="124" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="144"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="124"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="P34" s="110"/>
+    </row>
+    <row r="35" spans="1:16" ht="18" thickBot="1">
+      <c r="A35" s="129" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="164" t="s">
+        <v>978</v>
+      </c>
+      <c r="C35" s="173" t="s">
+        <v>987</v>
+      </c>
+      <c r="D35" s="177" t="s">
+        <v>961</v>
+      </c>
+      <c r="E35" s="119">
+        <v>41836</v>
+      </c>
+      <c r="F35" s="119">
+        <v>42002</v>
+      </c>
+      <c r="G35" s="120">
+        <f>(F35-E35)/365*12</f>
+        <v>5.4575342465753423</v>
+      </c>
+      <c r="H35" s="121">
+        <v>5520.15</v>
+      </c>
+      <c r="I35" s="147"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="121"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="120">
+        <f>(E35-$F$3)/365*12</f>
+        <v>23.638356164383563</v>
+      </c>
+      <c r="N35" s="120">
+        <f>(F35-$F$3)/365*12</f>
+        <v>29.095890410958901</v>
+      </c>
+      <c r="O35" s="121">
+        <v>254</v>
+      </c>
+      <c r="P35" s="122">
+        <v>333.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="D36" s="197"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9BF209-719E-094B-923C-5F98317673E4}">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="C17" activeCellId="1" sqref="E32 C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="75.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="179" customWidth="1"/>
+    <col min="6" max="7" width="24.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" thickBot="1">
+      <c r="A1" s="127" t="s">
+        <v>973</v>
+      </c>
+      <c r="B1" s="160" t="s">
+        <v>962</v>
+      </c>
+      <c r="C1" s="171" t="s">
+        <v>979</v>
+      </c>
+      <c r="D1" s="132" t="s">
+        <v>985</v>
+      </c>
+      <c r="E1" s="178" t="s">
+        <v>931</v>
+      </c>
+      <c r="F1" s="132" t="s">
+        <v>932</v>
+      </c>
+      <c r="G1" s="102" t="s">
+        <v>972</v>
+      </c>
+      <c r="H1" s="103" t="s">
+        <v>926</v>
+      </c>
+      <c r="I1" s="104" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" thickBot="1">
+      <c r="A2" s="150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="161"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="174" t="s">
+        <v>937</v>
+      </c>
+      <c r="E2" s="190"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="137"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" thickBot="1">
+      <c r="A3" s="185" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="186" t="s">
+        <v>937</v>
+      </c>
+      <c r="C3" s="187"/>
+      <c r="D3" s="188" t="s">
+        <v>989</v>
+      </c>
+      <c r="E3" s="189">
+        <v>7290</v>
+      </c>
+      <c r="F3" s="138"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="140"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="161" t="s">
+        <v>974</v>
+      </c>
+      <c r="C4" s="182" t="s">
+        <v>989</v>
+      </c>
+      <c r="D4" s="182" t="s">
+        <v>990</v>
+      </c>
+      <c r="E4" s="183">
+        <v>5651.18</v>
+      </c>
+      <c r="F4" s="138"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="140"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C5" s="165" t="s">
+        <v>990</v>
+      </c>
+      <c r="D5" s="165" t="s">
+        <v>991</v>
+      </c>
+      <c r="E5" s="181">
+        <v>1252.53</v>
+      </c>
+      <c r="F5" s="138"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="140"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C6" s="165" t="s">
+        <v>991</v>
+      </c>
+      <c r="D6" s="165" t="s">
+        <v>992</v>
+      </c>
+      <c r="E6" s="181">
+        <v>1231.6600000000001</v>
+      </c>
+      <c r="F6" s="138"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="140"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C7" s="165" t="s">
+        <v>992</v>
+      </c>
+      <c r="D7" s="165" t="s">
+        <v>993</v>
+      </c>
+      <c r="E7" s="181">
+        <v>297.16000000000003</v>
+      </c>
+      <c r="F7" s="138"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="140"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C8" s="165" t="s">
+        <v>993</v>
+      </c>
+      <c r="D8" s="165" t="s">
+        <v>994</v>
+      </c>
+      <c r="E8" s="181">
+        <v>173.78</v>
+      </c>
+      <c r="F8" s="138"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="140"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C9" s="165" t="s">
+        <v>994</v>
+      </c>
+      <c r="D9" s="165" t="s">
+        <v>995</v>
+      </c>
+      <c r="E9" s="181">
+        <v>530.07000000000005</v>
+      </c>
+      <c r="F9" s="138"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="140"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C10" s="165" t="s">
+        <v>992</v>
+      </c>
+      <c r="D10" s="165" t="s">
+        <v>996</v>
+      </c>
+      <c r="E10" s="181">
+        <v>628.51</v>
+      </c>
+      <c r="F10" s="138"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="140"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" thickBot="1">
+      <c r="A11" s="129" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="164" t="s">
+        <v>974</v>
+      </c>
+      <c r="C11" s="173" t="s">
+        <v>996</v>
+      </c>
+      <c r="D11" s="173" t="s">
+        <v>997</v>
+      </c>
+      <c r="E11" s="184">
+        <v>446.88</v>
+      </c>
+      <c r="F11" s="138"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="140"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="161" t="s">
+        <v>974</v>
+      </c>
+      <c r="C12" s="182" t="s">
+        <v>989</v>
+      </c>
+      <c r="D12" s="182" t="s">
+        <v>998</v>
+      </c>
+      <c r="E12" s="183">
+        <v>298</v>
+      </c>
+      <c r="F12" s="138"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="140"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C13" s="165" t="s">
+        <v>998</v>
+      </c>
+      <c r="D13" s="165" t="s">
+        <v>999</v>
+      </c>
+      <c r="E13" s="181">
+        <v>1096.1500000000001</v>
+      </c>
+      <c r="F13" s="138"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="140"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C14" s="165" t="s">
+        <v>999</v>
+      </c>
+      <c r="D14" s="165" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="181">
+        <v>642.65</v>
+      </c>
+      <c r="F14" s="138"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="140"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C15" s="165" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="165" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E15" s="181">
+        <v>691.63</v>
+      </c>
+      <c r="F15" s="138"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="140"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C16" s="165" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D16" s="165" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E16" s="181">
+        <v>494.01</v>
+      </c>
+      <c r="F16" s="138"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="140"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C17" s="165" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D17" s="165" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E17" s="181">
+        <v>708.84</v>
+      </c>
+      <c r="F17" s="138"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="140"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C18" s="165" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D18" s="165" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E18" s="181">
+        <v>212.81</v>
+      </c>
+      <c r="F18" s="138"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="140"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C19" s="165" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D19" s="165" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E19" s="181">
+        <v>561.48</v>
+      </c>
+      <c r="F19" s="138"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="140"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C20" s="165" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D20" s="165" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E20" s="181">
+        <v>1355.97</v>
+      </c>
+      <c r="F20" s="138"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="140"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C21" s="165" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D21" s="165" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E21" s="181">
+        <v>289.36</v>
+      </c>
+      <c r="F21" s="138"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="140"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="180" t="s">
+        <v>974</v>
+      </c>
+      <c r="C22" s="167" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D22" s="165" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E22" s="181">
+        <v>723.77</v>
+      </c>
+      <c r="F22" s="138"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="140"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" thickBot="1">
+      <c r="A23" s="129" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="164" t="s">
+        <v>974</v>
+      </c>
+      <c r="C23" s="173" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D23" s="173" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E23" s="184">
+        <v>780.27</v>
+      </c>
+      <c r="F23" s="138"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="140"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="161" t="s">
+        <v>975</v>
+      </c>
+      <c r="C24" s="182" t="s">
+        <v>989</v>
+      </c>
+      <c r="D24" s="182" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E24" s="134">
+        <v>71.760000000000005</v>
+      </c>
+      <c r="G24" s="139"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="140"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="180" t="s">
+        <v>975</v>
+      </c>
+      <c r="C25" s="165" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D25" s="165" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E25" s="138">
+        <v>502.58</v>
+      </c>
+      <c r="G25" s="139"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="140"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="180" t="s">
+        <v>975</v>
+      </c>
+      <c r="C26" s="165" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D26" s="165" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E26" s="138">
+        <v>478.64</v>
+      </c>
+      <c r="G26" s="139"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="140"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="180" t="s">
+        <v>975</v>
+      </c>
+      <c r="C27" s="165" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D27" s="165" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E27" s="138">
+        <v>382.92</v>
+      </c>
+      <c r="G27" s="139"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="140"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="128" t="s">
+        <v>873</v>
+      </c>
+      <c r="B28" s="180" t="s">
+        <v>975</v>
+      </c>
+      <c r="C28" s="165" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D28" s="165" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E28" s="138">
+        <v>430.78</v>
+      </c>
+      <c r="G28" s="139"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="140"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="128" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B29" s="180" t="s">
+        <v>975</v>
+      </c>
+      <c r="C29" s="165" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D29" s="165" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E29" s="138">
+        <v>430.78</v>
+      </c>
+      <c r="G29" s="139"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="140"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="128" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B30" s="180" t="s">
+        <v>975</v>
+      </c>
+      <c r="C30" s="165" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D30" s="165" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E30" s="138">
+        <v>478.64</v>
+      </c>
+      <c r="G30" s="139"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="140"/>
+    </row>
+    <row r="31" spans="1:9" ht="18" thickBot="1">
+      <c r="A31" s="129" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B31" s="164" t="s">
+        <v>975</v>
+      </c>
+      <c r="C31" s="173" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D31" s="173" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E31" s="141">
+        <v>478.64</v>
+      </c>
+      <c r="G31" s="139"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="140"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="180" t="s">
+        <v>976</v>
+      </c>
+      <c r="C32" s="167" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D32" s="165" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E32" s="181">
+        <v>478.64</v>
+      </c>
+      <c r="F32" s="138"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="140"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="180" t="s">
+        <v>976</v>
+      </c>
+      <c r="C33" s="165" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D33" s="165" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E33" s="181">
+        <v>478.64</v>
+      </c>
+      <c r="F33" s="138"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="140"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="180" t="s">
+        <v>976</v>
+      </c>
+      <c r="C34" s="165" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D34" s="165" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E34" s="181">
+        <v>430.78</v>
+      </c>
+      <c r="F34" s="138"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="140"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="128" t="s">
+        <v>873</v>
+      </c>
+      <c r="B35" s="180" t="s">
+        <v>976</v>
+      </c>
+      <c r="C35" s="165" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D35" s="165" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E35" s="181">
+        <v>478.64</v>
+      </c>
+      <c r="F35" s="138"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="140"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="128" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B36" s="180" t="s">
+        <v>976</v>
+      </c>
+      <c r="C36" s="165" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D36" s="165" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E36" s="181">
+        <v>478.64</v>
+      </c>
+      <c r="F36" s="138"/>
+      <c r="G36" s="139"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="140"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="128" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B37" s="180" t="s">
+        <v>976</v>
+      </c>
+      <c r="C37" s="165" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D37" s="165" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E37" s="181">
+        <v>432.78</v>
+      </c>
+      <c r="F37" s="138"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="140"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="128" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B38" s="180" t="s">
+        <v>976</v>
+      </c>
+      <c r="C38" s="165" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D38" s="165" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E38" s="181">
+        <v>422.8</v>
+      </c>
+      <c r="F38" s="138"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="140"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="128" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B39" s="180" t="s">
+        <v>976</v>
+      </c>
+      <c r="C39" s="165" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D39" s="165" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E39" s="181">
+        <v>374.94</v>
+      </c>
+      <c r="F39" s="138"/>
+      <c r="G39" s="139"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="140"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="128" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B40" s="180" t="s">
+        <v>976</v>
+      </c>
+      <c r="C40" s="165" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D40" s="165" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E40" s="181">
+        <v>2048.88</v>
+      </c>
+      <c r="F40" s="138"/>
+      <c r="G40" s="139"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="140"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="128" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B41" s="180" t="s">
+        <v>976</v>
+      </c>
+      <c r="C41" s="165" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D41" s="165" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E41" s="181">
+        <v>1931.26</v>
+      </c>
+      <c r="F41" s="138"/>
+      <c r="G41" s="139"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="140"/>
+    </row>
+    <row r="42" spans="1:9" ht="18" thickBot="1">
+      <c r="A42" s="129" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B42" s="164" t="s">
+        <v>976</v>
+      </c>
+      <c r="C42" s="173" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D42" s="173" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E42" s="184">
+        <v>1069.05</v>
+      </c>
+      <c r="F42" s="138"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="140"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>